--- a/public/preprocessing/@gusmusgusmu.xlsx
+++ b/public/preprocessing/@gusmusgusmu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13550</v>
+        <v>29155</v>
       </c>
       <c r="C2" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -511,30 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13551</v>
+        <v>29156</v>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>342</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>bagi orang indonesia keduanya benar bahasa indonesia itu penakluk banyak bahasa ditaklukkan menjadi bahasanya</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bagi', 'orang', 'indonesia', 'keduanya', 'benar', 'bahasa', 'indonesia', 'itu', 'penakluk', 'banyak', 'bahasa', 'ditaklukkan', 'menjadi', 'bahasanya']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bagi', 'orang', 'indonesia', 'keduanya', 'benar', 'bahasa', 'indonesia', 'itu', 'penakluk', 'banyak', 'bahasa', 'ditaklukkan', 'menjadi', 'bahasanya']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['orang', 'indonesia', 'bahasa', 'indonesia', 'penakluk', 'bahasa', 'ditaklukkan', 'bahasanya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['orang', 'indonesia', 'bahasa', 'indonesia', 'takluk', 'bahasa', 'takluk', 'bahasa']</t>
         </is>
       </c>
     </row>
@@ -543,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13552</v>
+        <v>29157</v>
       </c>
       <c r="C4" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>sembahyang ialah mirajnya orang mukmin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['sembahyang', 'ialah', 'mirajnya', 'orang', 'mukmin']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sembahyang', 'ialah', 'mirajnya', 'orang', 'mukmin']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['sembahyang', 'mirajnya', 'orang', 'mukmin']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['sembahyang', 'mirajnya', 'orang', 'mukmin']</t>
         </is>
       </c>
     </row>
@@ -579,30 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13553</v>
+        <v>29158</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>342</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>baru saja mengirim foto</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -611,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13554</v>
+        <v>29159</v>
       </c>
       <c r="C6" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kadang karena terlalu bersemangat mengurusi dan menasihati          kita jadi lupa terhadap diri sendir</t>
+          <t>kullu min wahadhratuh bialfialfi khair</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['kadang', 'karena', 'terlalu', 'bersemangat', 'mengurusi', 'dan', 'menasihati', 'kita', 'jadi', 'lupa', 'terhadap', 'diri', 'sendir']</t>
+          <t>['kullu', 'min', 'wahadhratuh', 'bialfialfi', 'khair']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kullu', 'min', 'wahadhratuh', 'bialfialfi', 'khair']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kadang', 'bersemangat', 'mengurusi', 'menasihati', 'lupa', 'sendir']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['kadang', 'semangat', 'urus', 'nasihat', 'lupa', 'sendir']</t>
+          <t>['kullu', 'min', 'wahadhratuh', 'bialfialfi', 'khair']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['kullu', 'min', 'wahadhratuh', 'bialfialfi', 'khair']</t>
         </is>
       </c>
     </row>
@@ -647,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13555</v>
+        <v>29160</v>
       </c>
       <c r="C7" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>dirs</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['dirs']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dirs']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['dirs']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['dirs']</t>
         </is>
       </c>
     </row>
@@ -683,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13556</v>
+        <v>29161</v>
       </c>
       <c r="C8" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t xml:space="preserve">     </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -719,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13557</v>
+        <v>29162</v>
       </c>
       <c r="C9" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>bagaimana kalau fatkhiya shalih</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['bagaimana', 'kalau', 'fatkhiya', 'shalih']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['bagaimana', 'kalau', 'fatkhiya', 'saleh']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['mengirim', 'foto']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['fatkhiya', 'saleh']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['fatkhiya', 'saleh']</t>
         </is>
       </c>
     </row>
@@ -755,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13558</v>
+        <v>29163</v>
       </c>
       <c r="C10" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -772,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -791,34 +849,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13559</v>
+        <v>29164</v>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>baru saja mengirim foto</t>
-        </is>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -827,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13560</v>
+        <v>29165</v>
       </c>
       <c r="C12" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>alhamdulillah aku mendapat kesempatan divaksin hari ini</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['alhamdulillah', 'aku', 'mendapat', 'kesempatan', 'divaksin', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['alhamdulillah', 'aku', 'mendapat', 'kesempatan', 'divaksin', 'hari', 'ini']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['alhamdulillah', 'kesempatan', 'divaksin']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'sempat', 'vaksin']</t>
         </is>
       </c>
     </row>
@@ -863,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13561</v>
+        <v>29166</v>
       </c>
       <c r="C13" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kami aku dan habib quraish sampai harus menjedahentikan makan kami terkesim</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kami', 'aku', 'dan', 'habib', 'quraish', 'sampai', 'harus', 'menjedahentikan', 'makan', 'kami', 'terkesim']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['habib', 'quraish', 'menjedahentikan', 'makan', 'terkesim']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['habib', 'quraish', 'menjedahentikan', 'makan', 'terkesim']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -899,34 +968,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13562</v>
+        <v>29167</v>
       </c>
       <c r="C14" t="n">
-        <v>176</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>baru saja mengirim foto</t>
-        </is>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -935,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13563</v>
+        <v>29168</v>
       </c>
       <c r="C15" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -952,15 +1022,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -971,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13564</v>
+        <v>29169</v>
       </c>
       <c r="C16" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -984,15 +1059,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1003,10 +1083,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13565</v>
+        <v>29170</v>
       </c>
       <c r="C17" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1020,15 +1100,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1039,34 +1124,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13566</v>
+        <v>29171</v>
       </c>
       <c r="C18" t="n">
-        <v>176</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>baru saja mengirim foto</t>
-        </is>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1075,34 +1161,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13567</v>
+        <v>29172</v>
       </c>
       <c r="C19" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>kadang karena terlalu bersemangat mengurusi dan menasihati          kita jadi lupa terhadap diri sendir</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['kadang', 'karena', 'terlalu', 'bersemangat', 'mengurusi', 'dan', 'menasihati', 'kita', 'jadi', 'lupa', 'terhadap', 'diri', 'sendir']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kadang', 'karena', 'terlalu', 'bersemangat', 'mengurusi', 'dan', 'menasihati', 'kita', 'jadi', 'lupa', 'terhadap', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['kadang', 'bersemangat', 'mengurusi', 'menasihati', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kadang', 'semangat', 'urus', 'nasihat', 'lupa']</t>
         </is>
       </c>
     </row>
@@ -1111,34 +1202,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13568</v>
+        <v>29173</v>
       </c>
       <c r="C20" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>alhamdulillah masih bisa nututi peringatan haul allhu yarham gus dur</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'masih', 'bisa', 'nututi', 'peringatan', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'nututi', 'peringatan', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'nututi', 'ingat', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1147,34 +1243,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13569</v>
+        <v>29174</v>
       </c>
       <c r="C21" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>alftihah lisayyidiilakh asysyeikh abdurrahman wahid rahimahullh</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1183,10 +1284,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13570</v>
+        <v>29175</v>
       </c>
       <c r="C22" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1200,15 +1301,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1219,10 +1325,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13571</v>
+        <v>29176</v>
       </c>
       <c r="C23" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1236,15 +1342,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1255,10 +1366,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13572</v>
+        <v>29177</v>
       </c>
       <c r="C24" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1272,15 +1383,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1291,10 +1407,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13573</v>
+        <v>29178</v>
       </c>
       <c r="C25" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1308,15 +1424,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1327,34 +1448,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13574</v>
+        <v>29179</v>
       </c>
       <c r="C26" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>mabrk alfualfi mabrk</t>
+          <t>kami aku dan habib quraish sampai harus menjedahentikan makan kami terkesim</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk']</t>
+          <t>['kami', 'aku', 'dan', 'habib', 'quraish', 'sampai', 'harus', 'menjedahentikan', 'makan', 'kami', 'terkesim']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
+          <t>['kami', 'aku', 'dan', 'habib', 'quraish', 'sampai', 'harus', 'menjedahentikan', 'makan', 'kami', 'terkesim']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk']</t>
+          <t>['habib', 'quraish', 'menjedahentikan', 'makan', 'terkesim']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['habib', 'quraish', 'menjedahentikan', 'makan', 'terkesim']</t>
         </is>
       </c>
     </row>
@@ -1363,10 +1489,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13575</v>
+        <v>29180</v>
       </c>
       <c r="C27" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1380,15 +1506,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1399,10 +1530,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13576</v>
+        <v>29181</v>
       </c>
       <c r="C28" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1416,15 +1547,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1435,34 +1571,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13577</v>
+        <v>29182</v>
       </c>
       <c r="C29" t="n">
-        <v>176</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>baru saja mengirim foto</t>
-        </is>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1471,10 +1608,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13578</v>
+        <v>29183</v>
       </c>
       <c r="C30" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1488,15 +1625,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1507,34 +1649,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13579</v>
+        <v>29184</v>
       </c>
       <c r="C31" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>hasyim asyari</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['hasyim', 'asyari']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['hasyim', 'asyari']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['hasyim', 'asyari']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1543,34 +1690,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13580</v>
+        <v>29185</v>
       </c>
       <c r="C32" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mabrk alfualfi mabrk saya nyumbang nama wardah mawar atau magda mulia</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk', 'saya', 'nyumbang', 'nama', 'wardah', 'mawar', 'atau', 'magda', 'mulia']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk', 'nyumbang', 'nama', 'wardah', 'mawar', 'magda', 'mulia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['mabrk', 'alfualfi', 'mabrk', 'nyumbang', 'nama', 'wardah', 'mawar', 'magda', 'mulia']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1579,34 +1731,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13581</v>
+        <v>29186</v>
       </c>
       <c r="C33" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rabbun yusyfiih</t>
+          <t>alhamdulillah masih bisa nututi peringatan haul allhu yarham gus dur</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rabbun', 'yusyfiih']</t>
+          <t>['alhamdulillah', 'masih', 'bisa', 'nututi', 'peringatan', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['alhamdulillah', 'masih', 'bisa', 'nututi', 'peringatan', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['rabbun', 'yusyfiih']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['rabbun', 'yusyfiih']</t>
+          <t>['alhamdulillah', 'nututi', 'peringatan', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'nututi', 'ingat', 'haul', 'allhu', 'yarham', 'gus', 'dur']</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1772,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13582</v>
+        <v>29187</v>
       </c>
       <c r="C34" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>waalaikumussalam warahmatullahi wabarakatuh bagaimana kalau dinamai muhammad abdul quddus</t>
+          <t>alftihah lisayyidiilakh asysyeikh abdurrahman wahid rahimahullh</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'bagaimana', 'kalau', 'dinamai', 'muhammad', 'abdul', 'quddus']</t>
+          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'dinamai', 'muhammad', 'abdul', 'quddus']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'nama', 'muhammad', 'abdul', 'quddus']</t>
+          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['alftihah', 'lisayyidiilakh', 'asysyeikh', 'abdurrahman', 'wahid', 'rahimahullh']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1813,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13583</v>
+        <v>29188</v>
       </c>
       <c r="C35" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>tidak ada amal saleh dengan menzalimi orang kezaliman sangat dibenci oleh tuhan</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['tidak', 'ada', 'amal', 'saleh', 'dengan', 'menzalimi', 'orang', 'kezaliman', 'sangat', 'dibenci', 'oleh', 'tuhan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['amal', 'saleh', 'menzalimi', 'orang', 'kezaliman', 'dibenci', 'tuhan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['amal', 'saleh', 'zalim', 'orang', 'zalim', 'benci', 'tuhan']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1687,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13584</v>
+        <v>29189</v>
       </c>
       <c r="C36" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1704,15 +1871,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1723,34 +1895,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13585</v>
+        <v>29190</v>
       </c>
       <c r="C37" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>harihari ini tibatiba aku kangen gus dur rahimahullh</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['harihari', 'ini', 'tibatiba', 'aku', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['harihari', 'tibatiba', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['harihari', 'tibatiba', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1936,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13586</v>
+        <v>29191</v>
       </c>
       <c r="C38" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mn  rabb</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['mn', 'rabb']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['mn', 'rabb']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['mn', 'rabb']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1977,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13587</v>
+        <v>29192</v>
       </c>
       <c r="C39" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>mabrk alfualfi mabrk</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['mabrk', 'alfualfi', 'mabrk']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mabrk', 'alfualfi', 'mabrk']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['mabrk', 'alfualfi', 'mabrk']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['mabrk', 'alfualfi', 'mabrk']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2018,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13588</v>
+        <v>29193</v>
       </c>
       <c r="C40" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">assalamualaikum warahmatullahi wabarakatuh selamat pagi selamat hari pahlawan marilah berusaha minimal </t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'hari', 'pahlawan', 'marilah', 'berusaha', 'minimal']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'pahlawan', 'marilah', 'berusaha', 'minimal']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'pahlawan', 'mari', 'usaha', 'minimal']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1867,10 +2059,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13589</v>
+        <v>29194</v>
       </c>
       <c r="C41" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1884,15 +2076,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1903,34 +2100,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13590</v>
+        <v>29195</v>
       </c>
       <c r="C42" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh semoga kalian semua sehat wal afiat dalam gambar silakan tebak</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'dalam', 'gambar', 'silakan', 'tebak']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'semoga', 'sehat', 'wal', 'afiat', 'gambar', 'silakan', 'tebak']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'moga', 'sehat', 'wal', 'afiat', 'gambar', 'sila', 'tebak']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -1939,10 +2141,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13591</v>
+        <v>29196</v>
       </c>
       <c r="C43" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1956,15 +2158,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -1975,34 +2182,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13592</v>
+        <v>29197</v>
       </c>
       <c r="C44" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>selamat hari soempah pemoeda alftihan untuk allah yarham simbah maimoen zoebair yang lahir pada hari soem</t>
+          <t>hasyim asyari</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'soempah', 'pemoeda', 'alftihan', 'untuk', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'yang', 'lahir', 'pada', 'hari', 'soem']</t>
+          <t>['hasyim', 'asyari']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['hasyim', 'asyari']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['selamat', 'soempah', 'pemoeda', 'alftihan', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'lahir', 'soem']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['selamat', 'soempah', 'pemoeda', 'alftihan', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'lahir', 'soem']</t>
+          <t>['hasyim', 'asyari']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['hasyim', 'asyari']</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2223,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13593</v>
+        <v>29198</v>
       </c>
       <c r="C45" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>mabrk alfualfi mabrk saya nyumbang nama wardah mawar atau magda mulia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['mabrk', 'alfualfi', 'mabrk', 'saya', 'nyumbang', 'nama', 'wardah', 'mawar', 'atau', 'magda', 'mulia']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mabrk', 'alfualfi', 'mabrk', 'saya', 'menyumbang', 'nama', 'wardah', 'mawar', 'atau', 'magda', 'mulia']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['mabrk', 'alfualfi', 'mabrk', 'menyumbang', 'nama', 'wardah', 'mawar', 'magda', 'mulia']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['mabrk', 'alfualfi', 'mabrk', 'sumbang', 'nama', 'wardah', 'mawar', 'magda', 'mulia']</t>
         </is>
       </c>
     </row>
@@ -2047,34 +2264,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13594</v>
+        <v>29199</v>
       </c>
       <c r="C46" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>rabbun yusyfiih</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['rabbun', 'yusyfiih']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rabbun', 'yusyfiih']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['rabbun', 'yusyfiih']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['rabbun', 'yusyfiih']</t>
         </is>
       </c>
     </row>
@@ -2083,34 +2305,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13595</v>
+        <v>29200</v>
       </c>
       <c r="C47" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>waalaikumussalam warahmatullahi wabarakatuh bagaimana kalau dinamai muhammad abdul quddus</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'bagaimana', 'kalau', 'dinamai', 'muhammad', 'abdul', 'quddus']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'bagaimana', 'kalau', 'dinamai', 'muhammad', 'abdul', 'quddus']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'dinamai', 'muhammad', 'abdul', 'quddus']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['waalaikumussalam', 'warahmatullahi', 'wabarakatuh', 'nama', 'muhammad', 'abdul', 'quddus']</t>
         </is>
       </c>
     </row>
@@ -2119,34 +2346,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13596</v>
+        <v>29201</v>
       </c>
       <c r="C48" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>tidak ada amal saleh dengan menzalimi orang kezaliman sangat dibenci oleh tuhan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['tidak', 'ada', 'amal', 'saleh', 'dengan', 'menzalimi', 'orang', 'kezaliman', 'sangat', 'dibenci', 'oleh', 'tuhan']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'amal', 'saleh', 'dengan', 'menzalimi', 'orang', 'kezaliman', 'sangat', 'dibenci', 'oleh', 'tuhan']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['amal', 'saleh', 'menzalimi', 'orang', 'kezaliman', 'dibenci', 'tuhan']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['amal', 'saleh', 'zalim', 'orang', 'zalim', 'benci', 'tuhan']</t>
         </is>
       </c>
     </row>
@@ -2155,34 +2387,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13597</v>
+        <v>29202</v>
       </c>
       <c r="C49" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>dalam kondisi        seperti sekarang ini kumpul anakanak menantu dan cucucucu merupakan hal mewah yan</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['dalam', 'kondisi', 'seperti', 'sekarang', 'ini', 'kumpul', 'anakanak', 'menantu', 'dan', 'cucucucu', 'merupakan', 'hal', 'mewah', 'yan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['kondisi', 'kumpul', 'anakanak', 'menantu', 'cucucucu', 'mewah', 'yan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['kondisi', 'kumpul', 'anakanak', 'menantu', 'cucucucu', 'mewah', 'yan']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2191,34 +2428,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13598</v>
+        <v>29203</v>
       </c>
       <c r="C50" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>anakanakku tak menjaga jarak hanya untuk foto bersama tapi tetap memakai masker semoga        ini segera</t>
+          <t>harihari ini tibatiba aku kangen gus dur rahimahullh</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['anakanakku', 'tak', 'menjaga', 'jarak', 'hanya', 'untuk', 'foto', 'bersama', 'tapi', 'tetap', 'memakai', 'masker', 'semoga', 'ini', 'segera']</t>
+          <t>['harihari', 'ini', 'tibatiba', 'aku', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['harihari', 'ini', 'tiba, tiba', 'aku', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['anakanakku', 'menjaga', 'jarak', 'foto', 'memakai', 'masker', 'semoga']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['anakanakku', 'jaga', 'jarak', 'foto', 'pakai', 'masker', 'moga']</t>
+          <t>['harihari', 'tiba, tiba', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['harihari', 'tiba tiba', 'kangen', 'gus', 'dur', 'rahimahullh']</t>
         </is>
       </c>
     </row>
@@ -2227,34 +2469,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13599</v>
+        <v>29204</v>
       </c>
       <c r="C51" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jafar allhumma  rabba muhammadin wa al li muhammadin shalli al muhammadin wa al li muhammadin waj</t>
+          <t>mn  rabb</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
+          <t>['mn', 'rabb']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 16 outcomes&gt;</t>
+          <t>['mana', 'rabi']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
+          <t>['rabi']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['rabi']</t>
         </is>
       </c>
     </row>
@@ -2263,30 +2510,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13600</v>
+        <v>29205</v>
       </c>
       <c r="C52" t="n">
-        <v>176</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>342</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>baru saja mengirim foto</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2295,34 +2551,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13601</v>
+        <v>29206</v>
       </c>
       <c r="C53" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t xml:space="preserve">assalamualaikum warahmatullahi wabarakatuh selamat pagi selamat hari pahlawan marilah berusaha minimal </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'hari', 'pahlawan', 'marilah', 'berusaha', 'minimal']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'hari', 'pahlawan', 'marilah', 'berusaha', 'minimal']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'pahlawan', 'marilah', 'berusaha', 'minimal']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'selamat', 'pahlawan', 'mari', 'usaha', 'minimal']</t>
         </is>
       </c>
     </row>
@@ -2331,10 +2592,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13602</v>
+        <v>29207</v>
       </c>
       <c r="C54" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2348,15 +2609,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -2367,34 +2633,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13603</v>
+        <v>29208</v>
       </c>
       <c r="C55" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi serasa sama atau tetap terasa berbeda harihari anda yan</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh semoga kalian semua sehat wal afiat dalam gambar silakan tebak</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'sama', 'atau', 'tetap', 'terasa', 'berbeda', 'harihari', 'anda', 'yan']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'dalam', 'gambar', 'silakan', 'tebak']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'semoga', 'kalian', 'semua', 'sehat', 'wah', 'afiat', 'dalam', 'gambar', 'silakan', 'tebak']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'berbeda', 'harihari', 'yan']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'beda', 'harihari', 'yan']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'semoga', 'sehat', 'afiat', 'gambar', 'silakan', 'tebak']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'moga', 'sehat', 'afiat', 'gambar', 'sila', 'tebak']</t>
         </is>
       </c>
     </row>
@@ -2403,10 +2674,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13604</v>
+        <v>29209</v>
       </c>
       <c r="C56" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2420,15 +2691,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -2439,34 +2715,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13605</v>
+        <v>29210</v>
       </c>
       <c r="C57" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>selamat hari batik foto dengan keponakan beberapa waktu sebelum datangnya pandemi semoga si pandemi ini segera</t>
+          <t>selamat hari soempah pemoeda alftihan untuk allah yarham simbah maimoen zoebair yang lahir pada hari soem</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'batik', 'foto', 'dengan', 'keponakan', 'beberapa', 'waktu', 'sebelum', 'datangnya', 'pandemi', 'semoga', 'si', 'pandemi', 'ini', 'segera']</t>
+          <t>['selamat', 'hari', 'soempah', 'pemoeda', 'alftihan', 'untuk', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'yang', 'lahir', 'pada', 'hari', 'soem']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'soempah', 'pemoeda', 'alftihan', 'untuk', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'yang', 'lahir', 'pada', 'hari', 'soem']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['selamat', 'batik', 'foto', 'keponakan', 'datangnya', 'pandemi', 'semoga', 'pandemi']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['selamat', 'batik', 'foto', 'keponakan', 'datang', 'pandemi', 'moga', 'pandemi']</t>
+          <t>['selamat', 'soempah', 'pemoeda', 'alftihan', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'lahir', 'soem']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['selamat', 'soempah', 'pemoeda', 'alftihan', 'allah', 'yarham', 'simbah', 'maimoen', 'zoebair', 'lahir', 'soem']</t>
         </is>
       </c>
     </row>
@@ -2475,10 +2756,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13606</v>
+        <v>29211</v>
       </c>
       <c r="C58" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2492,15 +2773,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -2511,34 +2797,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13607</v>
+        <v>29212</v>
       </c>
       <c r="C59" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga harihari anda senantiasa dipenuhi rahmat dan ber</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'harihari', 'anda', 'senantiasa', 'dipenuhi', 'rahmat', 'dan', 'ber']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'harihari', 'senantiasa', 'dipenuhi', 'rahmat', 'ber']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'harihari', 'senantiasa', 'penuh', 'rahmat', 'ber']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2547,34 +2838,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13608</v>
+        <v>29213</v>
       </c>
       <c r="C60" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rakyat minimal yg diwakili nu dan muhammadiyah telah meminta pemerintah menunda pilkada serentak tapi tampaknya</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rakyat', 'minimal', 'yg', 'diwakili', 'nu', 'dan', 'muhammadiyah', 'telah', 'meminta', 'pemerintah', 'menunda', 'pilkada', 'serentak', 'tapi', 'tampaknya']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['rakyat', 'minimal', 'diwakili', 'nu', 'muhammadiyah', 'pemerintah', 'menunda', 'pilkada', 'serentak']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['rakyat', 'minimal', 'wakil', 'nu', 'muhammadiyah', 'perintah', 'tunda', 'pilkada', 'serentak']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2583,34 +2879,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13609</v>
+        <v>29214</v>
       </c>
       <c r="C61" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cc pak pak untuk antisipasi bila pilkada serentak tidak ditunda</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['cc', 'pak', 'pak', 'untuk', 'antisipasi', 'bila', 'pilkada', 'serentak', 'tidak', 'ditunda']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['cc', 'antisipasi', 'pilkada', 'serentak', 'ditunda']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['cc', 'antisipasi', 'pilkada', 'serentak', 'tunda']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2619,34 +2920,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13610</v>
+        <v>29215</v>
       </c>
       <c r="C62" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>dalam kondisi        seperti sekarang ini kumpul anakanak menantu dan cucucucu merupakan hal mewah yan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['dalam', 'kondisi', 'seperti', 'sekarang', 'ini', 'kumpul', 'anakanak', 'menantu', 'dan', 'cucucucu', 'merupakan', 'hal', 'mewah', 'yan']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['dalam', 'kondisi', 'seperti', 'sekarang', 'ini', 'kumpul', 'anakanak', 'menantu', 'dan', 'cucucucu', 'merupakan', 'hal', 'mewah', 'yan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['kondisi', 'kumpul', 'anakanak', 'menantu', 'cucucucu', 'mewah', 'yan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['kondisi', 'kumpul', 'anakanak', 'menantu', 'cucucucu', 'mewah', 'yan']</t>
         </is>
       </c>
     </row>
@@ -2655,34 +2961,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13611</v>
+        <v>29216</v>
       </c>
       <c r="C63" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga anda semua dianugerahi kesehatan lahirbatin dan </t>
+          <t>anakanakku tak menjaga jarak hanya untuk foto bersama tapi tetap memakai masker semoga        ini segera</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'anda', 'semua', 'dianugerahi', 'kesehatan', 'lahirbatin', 'dan']</t>
+          <t>['anakanakku', 'tak', 'menjaga', 'jarak', 'hanya', 'untuk', 'foto', 'bersama', 'tapi', 'tetap', 'memakai', 'masker', 'semoga', 'ini', 'segera']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['anakanakku', 'tak', 'menjaga', 'jarak', 'hanya', 'untuk', 'foto', 'bersama', 'tapi', 'tetap', 'memakai', 'masker', 'semoga', 'ini', 'segera']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'dianugerahi', 'kesehatan', 'lahirbatin']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'anugerah', 'sehat', 'lahirbatin']</t>
+          <t>['anakanakku', 'menjaga', 'jarak', 'foto', 'memakai', 'masker', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['anakanakku', 'jaga', 'jarak', 'foto', 'pakai', 'masker', 'moga']</t>
         </is>
       </c>
     </row>
@@ -2691,34 +3002,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13612</v>
+        <v>29217</v>
       </c>
       <c r="C64" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>jafar allhumma  rabba muhammadin wa al li muhammadin shalli al muhammadin wa al li muhammadin waj</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 9 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['jafar', 'allhumma', 'rabba', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'shalli', 'al', 'muhammadin', 'wa', 'al', 'li', 'muhammadin', 'waj']</t>
         </is>
       </c>
     </row>
@@ -2727,34 +3043,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13613</v>
+        <v>29218</v>
       </c>
       <c r="C65" t="n">
-        <v>176</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>baru saja mengirim foto</t>
-        </is>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2763,34 +3080,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13614</v>
+        <v>29219</v>
       </c>
       <c r="C66" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>di negeri daging orang yang akan membuka praktek kedokteran untuk konsultasi kesehatan atau mengobati fisikjasm</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['di', 'negeri', 'daging', 'orang', 'yang', 'akan', 'membuka', 'praktek', 'kedokteran', 'untuk', 'konsultasi', 'kesehatan', 'atau', 'mengobati', 'fisikjasm']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['negeri', 'daging', 'orang', 'membuka', 'praktek', 'kedokteran', 'konsultasi', 'kesehatan', 'mengobati', 'fisikjasm']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['negeri', 'daging', 'orang', 'buka', 'praktek', 'dokter', 'konsultasi', 'sehat', 'obat', 'fisikjasm']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2799,34 +3121,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13615</v>
+        <v>29220</v>
       </c>
       <c r="C67" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>inn lillhi wainn ilaihi rjiuun telah pulang ke rahmatullh saudaraku yang baik tokoh yang tulus ikhlas ber</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'telah', 'pulang', 'ke', 'rahmatullh', 'saudaraku', 'yang', 'baik', 'tokoh', 'yang', 'tulus', 'ikhlas', 'ber']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'pulang', 'rahmatullh', 'saudaraku', 'tokoh', 'tulus', 'ikhlas', 'ber']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'pulang', 'rahmatullh', 'saudara', 'tokoh', 'tulus', 'ikhlas', 'ber']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2835,34 +3162,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13616</v>
+        <v>29221</v>
       </c>
       <c r="C68" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahirbatin memak</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi serasa sama atau tetap terasa berbeda harihari anda yan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahirbatin', 'memak']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'sama', 'atau', 'tetap', 'terasa', 'berbeda', 'harihari', 'anda', 'yan']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'sama', 'atau', 'tetap', 'terasa', 'berbeda', 'harihari', 'anda', 'yan']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'wal', 'afiat', 'lahirbatin', 'memak']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'wal', 'afiat', 'lahirbatin', 'memak']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'berbeda', 'harihari', 'yan']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'serasa', 'beda', 'harihari', 'yan']</t>
         </is>
       </c>
     </row>
@@ -2871,34 +3203,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13617</v>
+        <v>29222</v>
       </c>
       <c r="C69" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahir dan batin kala</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahir', 'dan', 'batin', 'kala']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'wal', 'afiat', 'lahir', 'batin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'wal', 'afiat', 'lahir', 'batin']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2907,34 +3244,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13618</v>
+        <v>29223</v>
       </c>
       <c r="C70" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan selalu menganuger</t>
+          <t>selamat hari batik foto dengan keponakan beberapa waktu sebelum datangnya pandemi semoga si pandemi ini segera</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'selalu', 'menganuger']</t>
+          <t>['selamat', 'hari', 'batik', 'foto', 'dengan', 'keponakan', 'beberapa', 'waktu', 'sebelum', 'datangnya', 'pandemi', 'semoga', 'si', 'pandemi', 'ini', 'segera']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'batik', 'foto', 'dengan', 'keponakan', 'beberapa', 'waktu', 'sebelum', 'datangnya', 'pandemi', 'semoga', 'sih', 'pandemi', 'ini', 'segera']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'menganuger']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'menganuger']</t>
+          <t>['selamat', 'batik', 'foto', 'keponakan', 'datangnya', 'pandemi', 'semoga', 'pandemi']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['selamat', 'batik', 'foto', 'keponakan', 'datang', 'pandemi', 'moga', 'pandemi']</t>
         </is>
       </c>
     </row>
@@ -2943,34 +3285,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13619</v>
+        <v>29224</v>
       </c>
       <c r="C71" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>inn lillhi wainn ilaihi rjiuun kami menyatakan belasungkawa yang dalam atas gugurnya puluhan tenaga medis dan</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'kami', 'menyatakan', 'belasungkawa', 'yang', 'dalam', 'atas', 'gugurnya', 'puluhan', 'tenaga', 'medis', 'dan']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'belasungkawa', 'gugurnya', 'puluhan', 'tenaga', 'medis']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'belasungkawa', 'gugur', 'puluh', 'tenaga', 'medis']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2979,34 +3326,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13620</v>
+        <v>29225</v>
       </c>
       <c r="C72" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua baikbaik saja senantiasa dalam lin</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga harihari anda senantiasa dipenuhi rahmat dan ber</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'baikbaik', 'saja', 'senantiasa', 'dalam', 'lin']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'harihari', 'anda', 'senantiasa', 'dipenuhi', 'rahmat', 'dan', 'ber']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'harihari', 'anda', 'senantiasa', 'dipenuhi', 'rahmat', 'dan', 'ber']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'baikbaik', 'senantiasa', 'lin']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'baikbaik', 'senantiasa', 'lin']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'harihari', 'senantiasa', 'dipenuhi', 'rahmat', 'ber']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'harihari', 'senantiasa', 'penuh', 'rahmat', 'ber']</t>
         </is>
       </c>
     </row>
@@ -3015,34 +3367,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13621</v>
+        <v>29226</v>
       </c>
       <c r="C73" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>sajak sang maestro rendra rahimahullh dari unggahan</t>
+          <t>rakyat minimal yg diwakili nu dan muhammadiyah telah meminta pemerintah menunda pilkada serentak tapi tampaknya</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'dari', 'unggahan']</t>
+          <t>['rakyat', 'minimal', 'yg', 'diwakili', 'nu', 'dan', 'muhammadiyah', 'telah', 'meminta', 'pemerintah', 'menunda', 'pilkada', 'serentak', 'tapi', 'tampaknya']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rakyat', 'minimal', 'yang', 'diwakili', 'nu', 'dan', 'muhammadiyah', 'telah', 'meminta', 'pemerintah', 'menunda', 'pilihan, kepala, daerah', 'serentak', 'tapi', 'tampaknya']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'unggahan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'unggah']</t>
+          <t>['rakyat', 'minimal', 'diwakili', 'nu', 'muhammadiyah', 'pemerintah', 'menunda', 'pilihan, kepala, daerah', 'serentak']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['rakyat', 'minimal', 'wakil', 'nu', 'muhammadiyah', 'perintah', 'tunda', 'pilih kepala daerah', 'serentak']</t>
         </is>
       </c>
     </row>
@@ -3051,34 +3408,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13622</v>
+        <v>29227</v>
       </c>
       <c r="C74" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kangen amp jumat call aku itu         mudah kangen jangankan kepada kekasih anakcucu keponakankeponaka</t>
+          <t>cc pak pak untuk antisipasi bila pilkada serentak tidak ditunda</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kangen', 'amp', 'jumat', 'call', 'aku', 'itu', 'mudah', 'kangen', 'jangankan', 'kepada', 'kekasih', 'anakcucu', 'keponakankeponaka']</t>
+          <t>['cc', 'pak', 'pak', 'untuk', 'antisipasi', 'bila', 'pilkada', 'serentak', 'tidak', 'ditunda']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['cc', 'pak', 'pak', 'untuk', 'antisipasi', 'bila', 'pilihan, kepala, daerah', 'serentak', 'tidak', 'ditunda']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['kangen', 'jumat', 'call', 'mudah', 'kangen', 'kekasih', 'anakcucu', 'keponakankeponaka']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['kangen', 'jumat', 'call', 'mudah', 'kangen', 'kasih', 'anakcucu', 'keponakankeponaka']</t>
+          <t>['cc', 'antisipasi', 'pilihan, kepala, daerah', 'serentak', 'ditunda']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['cc', 'antisipasi', 'pilih kepala daerah', 'serentak', 'tunda']</t>
         </is>
       </c>
     </row>
@@ -3087,34 +3449,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13623</v>
+        <v>29228</v>
       </c>
       <c r="C75" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga jumat dan harihari kita di tahun baru ini dipenuh</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'jumat', 'dan', 'harihari', 'kita', 'di', 'tahun', 'baru', 'ini', 'dipenuh']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'jumat', 'harihari', 'dipenuh']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'jumat', 'harihari', 'penuh']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3123,34 +3490,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13624</v>
+        <v>29229</v>
       </c>
       <c r="C76" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>belum sempat belum sempat aku menghormat jumat sabtuku sudah tiba lagi kemarin rabuku belum lagi kulayani seca</t>
+          <t xml:space="preserve">assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga anda semua dianugerahi kesehatan lahirbatin dan </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['belum', 'sempat', 'belum', 'sempat', 'aku', 'menghormat', 'jumat', 'sabtuku', 'sudah', 'tiba', 'lagi', 'kemarin', 'rabuku', 'belum', 'lagi', 'kulayani', 'seca']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'anda', 'semua', 'dianugerahi', 'kesehatan', 'lahirbatin', 'dan']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'anda', 'semua', 'dianugerahi', 'kesehatan', 'lahirbatin', 'dan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['menghormat', 'jumat', 'sabtuku', 'kemarin', 'rabuku', 'kulayani', 'seca']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['hormat', 'jumat', 'sabtu', 'kemarin', 'rabu', 'layan', 'seca']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'dianugerahi', 'kesehatan', 'lahirbatin']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'anugerah', 'sehat', 'lahirbatin']</t>
         </is>
       </c>
     </row>
@@ -3159,34 +3531,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13625</v>
+        <v>29230</v>
       </c>
       <c r="C77" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">         indonesia merdeka foto dari gus taj yasin</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['indonesia', 'merdeka', 'foto', 'dari', 'gus', 'taj', 'yasin']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['indonesia', 'merdeka', 'foto', 'gus', 'taj', 'yasin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['indonesia', 'merdeka', 'foto', 'gus', 'taj', 'yasin']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3195,34 +3572,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13626</v>
+        <v>29231</v>
       </c>
       <c r="C78" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan memimpin kita ke</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'memimpin', 'kita', 'ke']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'memimpin']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'pimpin']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3231,34 +3613,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13627</v>
+        <v>29232</v>
       </c>
       <c r="C79" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi alhamdulillah terima kasih kepada kalian semua teru</t>
+          <t>di negeri daging orang yang akan membuka praktek kedokteran untuk konsultasi kesehatan atau mengobati fisikjasm</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih', 'kepada', 'kalian', 'semua', 'teru']</t>
+          <t>['di', 'negeri', 'daging', 'orang', 'yang', 'akan', 'membuka', 'praktek', 'kedokteran', 'untuk', 'konsultasi', 'kesehatan', 'atau', 'mengobati', 'fisikjasm']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['di', 'negeri', 'daging', 'orang', 'yang', 'akan', 'membuka', 'praktik', 'kedokteran', 'untuk', 'konsultasi', 'kesehatan', 'atau', 'mengobati', 'fisikjasm']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih', 'teru']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih', 'teru']</t>
+          <t>['negeri', 'daging', 'orang', 'membuka', 'praktik', 'kedokteran', 'konsultasi', 'kesehatan', 'mengobati', 'fisikjasm']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['negeri', 'daging', 'orang', 'buka', 'praktik', 'dokter', 'konsultasi', 'sehat', 'obat', 'fisikjasm']</t>
         </is>
       </c>
     </row>
@@ -3267,34 +3654,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13628</v>
+        <v>29233</v>
       </c>
       <c r="C80" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semuanya semoga kalian bersama keluarga baikbaik saja</t>
+          <t>inn lillhi wainn ilaihi rjiuun telah pulang ke rahmatullh saudaraku yang baik tokoh yang tulus ikhlas ber</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semuanya', 'semoga', 'kalian', 'bersama', 'keluarga', 'baikbaik', 'saja']</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'telah', 'pulang', 'ke', 'rahmatullh', 'saudaraku', 'yang', 'baik', 'tokoh', 'yang', 'tulus', 'ikhlas', 'ber']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'telah', 'pulang', 'ke', 'rahmatullh', 'saudaraku', 'yang', 'baik', 'tokoh', 'yang', 'tulus', 'ikhlas', 'ber']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'keluarga', 'baikbaik']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'keluarga', 'baikbaik']</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'pulang', 'rahmatullh', 'saudaraku', 'tokoh', 'tulus', 'ikhlas', 'ber']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'pulang', 'rahmatullh', 'saudara', 'tokoh', 'tulus', 'ikhlas', 'ber']</t>
         </is>
       </c>
     </row>
@@ -3303,34 +3695,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13629</v>
+        <v>29234</v>
       </c>
       <c r="C81" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan menjernihkan ha</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahirbatin memak</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'menjernihkan', 'ha']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahirbatin', 'memak']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wah', 'afiat', 'lahirbatin', 'memak']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'menjernihkan', 'ha']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'jernih', 'ha']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'afiat', 'lahirbatin', 'memak']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'afiat', 'lahirbatin', 'memak']</t>
         </is>
       </c>
     </row>
@@ -3339,34 +3736,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13630</v>
+        <v>29235</v>
       </c>
       <c r="C82" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah menganugerahi kalian kesehatan lahirbatin</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahir dan batin kala</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'menganugerahi', 'kalian', 'kesehatan', 'lahirbatin']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahir', 'dan', 'batin', 'kala']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wah', 'afiat', 'lahir', 'dan', 'batin', 'kala']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'menganugerahi', 'kesehatan', 'lahirbatin']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'anugerah', 'sehat', 'lahirbatin']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'afiat', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'afiat', 'lahir', 'batin']</t>
         </is>
       </c>
     </row>
@@ -3375,34 +3777,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13631</v>
+        <v>29236</v>
       </c>
       <c r="C83" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahir dan batin te</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan selalu menganuger</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahir', 'dan', 'batin', 'te']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'selalu', 'menganuger']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'selalu', 'menganuger']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'wal', 'afiat', 'lahir', 'batin', 'te']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'wal', 'afiat', 'lahir', 'batin', 'te']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'menganuger']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'menganuger']</t>
         </is>
       </c>
     </row>
@@ -3411,34 +3818,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13632</v>
+        <v>29237</v>
       </c>
       <c r="C84" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>samasama putera pahlawan nasional sang kakak putera sulung dan sang adik putera bungsu keduanya samasama me</t>
+          <t>inn lillhi wainn ilaihi rjiuun kami menyatakan belasungkawa yang dalam atas gugurnya puluhan tenaga medis dan</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'dan', 'sang', 'adik', 'putera', 'bungsu', 'keduanya', 'samasama', 'me']</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'kami', 'menyatakan', 'belasungkawa', 'yang', 'dalam', 'atas', 'gugurnya', 'puluhan', 'tenaga', 'medis', 'dan']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'kami', 'menyatakan', 'belasungkawa', 'yang', 'dalam', 'atas', 'gugurnya', 'puluhan', 'tenaga', 'medis', 'dan']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'sang', 'adik', 'putera', 'bungsu', 'samasama', 'me']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'sang', 'adik', 'putera', 'bungsu', 'samasama', 'me']</t>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'belasungkawa', 'gugurnya', 'puluhan', 'tenaga', 'medis']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['inn', 'lillhi', 'wainn', 'ilaihi', 'rjiuun', 'belasungkawa', 'gugur', 'puluh', 'tenaga', 'medis']</t>
         </is>
       </c>
     </row>
@@ -3447,34 +3859,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13633</v>
+        <v>29238</v>
       </c>
       <c r="C85" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>orang mukmin yang benarbenar memahami kebesaran allah seberapa pun besar pengurbanannya untuk mendapatkan ridanya</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua baikbaik saja senantiasa dalam lin</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['orang', 'mukmin', 'yang', 'benarbenar', 'memahami', 'kebesaran', 'allah', 'seberapa', 'pun', 'besar', 'pengurbanannya', 'untuk', 'mendapatkan', 'ridanya']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'baikbaik', 'saja', 'senantiasa', 'dalam', 'lin']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'baikbaik', 'saja', 'senantiasa', 'dalam', 'lin']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['orang', 'mukmin', 'benarbenar', 'memahami', 'kebesaran', 'allah', 'pengurbanannya', 'ridanya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['orang', 'mukmin', 'benarbenar', 'paham', 'besar', 'allah', 'urban', 'rida']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'baikbaik', 'senantiasa', 'lin']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'baikbaik', 'senantiasa', 'lin']</t>
         </is>
       </c>
     </row>
@@ -3483,34 +3900,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13634</v>
+        <v>29239</v>
       </c>
       <c r="C86" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>insyallah husnul khtimah alftihah ikut berduka azhzhamallhu ajrakum wa ahsana azakum</t>
+          <t>sajak sang maestro rendra rahimahullh dari unggahan</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['insyallah', 'husnul', 'khtimah', 'alftihah', 'ikut', 'berduka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
+          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'dari', 'unggahan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'dari', 'unggahan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['insyallah', 'husnul', 'khtimah', 'alftihah', 'berduka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['insyallah', 'husnul', 'khtimah', 'alftihah', 'duka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
+          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'unggahan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['sajak', 'sang', 'maestro', 'rendra', 'rahimahullh', 'unggah']</t>
         </is>
       </c>
     </row>
@@ -3519,34 +3941,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13635</v>
+        <v>29240</v>
       </c>
       <c r="C87" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan merahmati kehid</t>
+          <t>kangen amp jumat call aku itu         mudah kangen jangankan kepada kekasih anakcucu keponakankeponaka</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'merahmati', 'kehid']</t>
+          <t>['kangen', 'amp', 'jumat', 'call', 'aku', 'itu', 'mudah', 'kangen', 'jangankan', 'kepada', 'kekasih', 'anakcucu', 'keponakankeponaka']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kangen', 'amp', 'jumat', 'call', 'aku', 'itu', 'mudah', 'kangen', 'jangankan', 'kepada', 'kekasih', 'anakcucu', 'keponakankeponaka']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'merahmati', 'kehid']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'rahmat', 'kehid']</t>
+          <t>['kangen', 'jumat', 'call', 'mudah', 'kangen', 'kekasih', 'anakcucu', 'keponakankeponaka']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['kangen', 'jumat', 'call', 'mudah', 'kangen', 'kasih', 'anakcucu', 'keponakankeponaka']</t>
         </is>
       </c>
     </row>
@@ -3555,34 +3982,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13636</v>
+        <v>29241</v>
       </c>
       <c r="C88" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>yang ahli ekonomi bicara ekonomi sajalahtak usah bicara kesehatan atau teknik yang ahli makanan bic</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga jumat dan harihari kita di tahun baru ini dipenuh</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['yang', 'ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'usah', 'bicara', 'kesehatan', 'atau', 'teknik', 'yang', 'ahli', 'makanan', 'bic']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'jumat', 'dan', 'harihari', 'kita', 'di', 'tahun', 'baru', 'ini', 'dipenuh']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'jumat', 'dan', 'harihari', 'kita', 'di', 'tahun', 'baru', 'ini', 'dipenuh']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'bicara', 'kesehatan', 'teknik', 'ahli', 'makanan', 'bic']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'bicara', 'sehat', 'teknik', 'ahli', 'makan', 'bic']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'jumat', 'harihari', 'dipenuh']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'jumat', 'harihari', 'penuh']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4023,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13637</v>
+        <v>29242</v>
       </c>
       <c r="C89" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>selamat pagi berkabarlah kata pagi kepadaku berkabar apa lagi kataku bukankah aku memulai harihariku bersamamu</t>
+          <t>belum sempat belum sempat aku menghormat jumat sabtuku sudah tiba lagi kemarin rabuku belum lagi kulayani seca</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'berkabarlah', 'kata', 'pagi', 'kepadaku', 'berkabar', 'apa', 'lagi', 'kataku', 'bukankah', 'aku', 'memulai', 'harihariku', 'bersamamu']</t>
+          <t>['belum', 'sempat', 'belum', 'sempat', 'aku', 'menghormat', 'jumat', 'sabtuku', 'sudah', 'tiba', 'lagi', 'kemarin', 'rabuku', 'belum', 'lagi', 'kulayani', 'seca']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['belum', 'sempat', 'belum', 'sempat', 'aku', 'menghormat', 'jumat', 'sabtuku', 'sudah', 'tiba', 'lagi', 'kemarin', 'rabuku', 'belum', 'lagi', 'kulayani', 'seca']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'berkabarlah', 'pagi', 'kepadaku', 'berkabar', 'kataku', 'harihariku', 'bersamamu']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'kabar', 'pagi', 'kepada', 'kabar', 'kata', 'harihariku', 'sama']</t>
+          <t>['menghormat', 'jumat', 'sabtuku', 'kemarin', 'rabuku', 'kulayani', 'seca']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['hormat', 'jumat', 'sabtu', 'kemarin', 'rabu', 'layan', 'seca']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4064,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13638</v>
+        <v>29243</v>
       </c>
       <c r="C90" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>hujan di bulan juli inn lillhi wainn ilaihi rjin terutama dunia sastra menangis salah seorang toko</t>
+          <t xml:space="preserve">         indonesia merdeka foto dari gus taj yasin</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['hujan', 'di', 'bulan', 'juli', 'inn', 'lillhi', 'wainn', 'ilaihi', 'rjin', 'terutama', 'dunia', 'sastra', 'menangis', 'salah', 'seorang', 'toko']</t>
+          <t>['indonesia', 'merdeka', 'foto', 'dari', 'gus', 'taj', 'yasin']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['indonesia', 'merdeka', 'foto', 'dari', 'gus', 'tai', 'yasin']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['hujan', 'juli', 'inn', 'lillhi', 'wainn', 'ilaihi', 'rjin', 'dunia', 'sastra', 'menangis', 'salah', 'toko']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['hujan', 'juli', 'inn', 'lillhi', 'wainn', 'ilaihi', 'rjin', 'dunia', 'sastra', 'menang', 'salah', 'toko']</t>
+          <t>['indonesia', 'merdeka', 'foto', 'gus', 'tai', 'yasin']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['indonesia', 'merdeka', 'foto', 'gus', 'tai', 'yasin']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4105,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13639</v>
+        <v>29244</v>
       </c>
       <c r="C91" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">ravi dan mencari pengetahuan melihat aku sedang menyimak pengajian ihy onlinenya anakku kiai ulil abshar </t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan memimpin kita ke</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['ravi', 'dan', 'mencari', 'pengetahuan', 'melihat', 'aku', 'sedang', 'menyimak', 'pengajian', 'ihy', 'onlinenya', 'anakku', 'kiai', 'ulil', 'abshar']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'memimpin', 'kita', 'ke']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'memimpin', 'kita', 'ke']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['ravi', 'mencari', 'pengetahuan', 'menyimak', 'pengajian', 'ihy', 'onlinenya', 'anakku', 'kiai', 'ulil', 'abshar']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['ravi', 'cari', 'tahu', 'simak', 'aji', 'ihy', 'onlinenya', 'anak', 'kiai', 'ulil', 'abshar']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'memimpin']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'pimpin']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4146,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13640</v>
+        <v>29245</v>
       </c>
       <c r="C92" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan merahmati diri</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi alhamdulillah terima kasih kepada kalian semua teru</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'merahmati', 'diri']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih', 'kepada', 'kalian', 'semua', 'teru']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih', 'kepada', 'kalian', 'semua', 'terus']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'merahmati']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'rahmat']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'alhamdulillah', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4187,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13641</v>
+        <v>29246</v>
       </c>
       <c r="C93" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>tebak siapa tokoh yang bersamaku ini dia adalah seniman dan penyair kita yang total dalam mengekpresikan kesenima</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semuanya semoga kalian bersama keluarga baikbaik saja</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['tebak', 'siapa', 'tokoh', 'yang', 'bersamaku', 'ini', 'dia', 'adalah', 'seniman', 'dan', 'penyair', 'kita', 'yang', 'total', 'dalam', 'mengekpresikan', 'kesenima']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semuanya', 'semoga', 'kalian', 'bersama', 'keluarga', 'baikbaik', 'saja']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semuanya', 'semoga', 'kalian', 'bersama', 'keluarga', 'baikbaik', 'saja']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['tebak', 'tokoh', 'bersamaku', 'seniman', 'penyair', 'total', 'mengekpresikan', 'kesenima']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['tebak', 'tokoh', 'sama', 'seniman', 'sair', 'total', 'mengekpresikan', 'kesenima']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'keluarga', 'baikbaik']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'keluarga', 'baikbaik']</t>
         </is>
       </c>
     </row>
@@ -3771,30 +4228,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13642</v>
+        <v>29247</v>
       </c>
       <c r="C94" t="n">
-        <v>176</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>342</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan menjernihkan ha</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'menjernihkan', 'ha']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'menjernihkan', 'apa']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'menjernihkan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'jernih']</t>
         </is>
       </c>
     </row>
@@ -3803,34 +4269,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13643</v>
+        <v>29248</v>
       </c>
       <c r="C95" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan memberi kita kek</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah menganugerahi kalian kesehatan lahirbatin</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'memberi', 'kita', 'kek']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'menganugerahi', 'kalian', 'kesehatan', 'lahirbatin']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'menganugerahi', 'kalian', 'kesehatan', 'lahirbatin']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kek']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'kek']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'menganugerahi', 'kesehatan', 'lahirbatin']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'anugerah', 'sehat', 'lahirbatin']</t>
         </is>
       </c>
     </row>
@@ -3839,30 +4310,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13644</v>
+        <v>29249</v>
       </c>
       <c r="C96" t="n">
-        <v>176</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>342</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahir dan batin te</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahir', 'dan', 'batin', 'te']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wah', 'afiat', 'lahir', 'dan', 'batin', 'te']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'afiat', 'lahir', 'batin', 'te']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'afiat', 'lahir', 'batin', 'te']</t>
         </is>
       </c>
     </row>
@@ -3871,34 +4351,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13645</v>
+        <v>29250</v>
       </c>
       <c r="C97" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga kalian semua sehat wal afiat lahir dan batin kit</t>
+          <t>samasama putera pahlawan nasional sang kakak putera sulung dan sang adik putera bungsu keduanya samasama me</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'kalian', 'semua', 'sehat', 'wal', 'afiat', 'lahir', 'dan', 'batin', 'kit']</t>
+          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'dan', 'sang', 'adik', 'putera', 'bungsu', 'keduanya', 'samasama', 'me']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'dan', 'sang', 'adik', 'putera', 'bungsu', 'keduanya', 'samasama', 'me']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'sehat', 'wal', 'afiat', 'lahir', 'batin', 'kit']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'sehat', 'wal', 'afiat', 'lahir', 'batin', 'kit']</t>
+          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'sang', 'adik', 'putera', 'bungsu', 'samasama', 'me']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['samasama', 'putera', 'pahlawan', 'nasional', 'sang', 'kakak', 'putera', 'sulung', 'sang', 'adik', 'putera', 'bungsu', 'samasama', 'me']</t>
         </is>
       </c>
     </row>
@@ -3907,34 +4392,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13646</v>
+        <v>29251</v>
       </c>
       <c r="C98" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">bagaimana bagaimana tidak terharu dan bangga sajak sederhanaku dibacakan oleh tokoh kebanggaan mufassir </t>
+          <t>orang mukmin yang benarbenar memahami kebesaran allah seberapa pun besar pengurbanannya untuk mendapatkan ridanya</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['bagaimana', 'bagaimana', 'tidak', 'terharu', 'dan', 'bangga', 'sajak', 'sederhanaku', 'dibacakan', 'oleh', 'tokoh', 'kebanggaan', 'mufassir']</t>
+          <t>['orang', 'mukmin', 'yang', 'benarbenar', 'memahami', 'kebesaran', 'allah', 'seberapa', 'pun', 'besar', 'pengurbanannya', 'untuk', 'mendapatkan', 'ridanya']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['orang', 'mukmin', 'yang', 'benarbenar', 'memahami', 'kebesaran', 'allah', 'seberapa', 'pun', 'besar', 'pengurbanannya', 'untuk', 'mendapatkan', 'ridanya']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['terharu', 'bangga', 'sajak', 'sederhanaku', 'dibacakan', 'tokoh', 'kebanggaan', 'mufassir']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['haru', 'bangga', 'sajak', 'sederhana', 'baca', 'tokoh', 'bangga', 'mufassir']</t>
+          <t>['orang', 'mukmin', 'benarbenar', 'memahami', 'kebesaran', 'allah', 'pengurbanannya', 'ridanya']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['orang', 'mukmin', 'benarbenar', 'paham', 'besar', 'allah', 'urban', 'rida']</t>
         </is>
       </c>
     </row>
@@ -3943,34 +4433,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13647</v>
+        <v>29252</v>
       </c>
       <c r="C99" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>yang benar alunalun tapi dulu nulisnya alonalon</t>
+          <t>insyallah husnul khtimah alftihah ikut berduka azhzhamallhu ajrakum wa ahsana azakum</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['yang', 'benar', 'alunalun', 'tapi', 'dulu', 'nulisnya', 'alonalon']</t>
+          <t>['insyallah', 'husnul', 'khtimah', 'alftihah', 'ikut', 'berduka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['insyaallah', 'husnul', 'khtimah', 'alftihah', 'ikut', 'berduka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['alunalun', 'nulisnya', 'alonalon']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['alunalun', 'nulisnya', 'alonalon']</t>
+          <t>['insyaallah', 'husnul', 'khtimah', 'alftihah', 'berduka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['insyaallah', 'husnul', 'khtimah', 'alftihah', 'duka', 'azhzhamallhu', 'ajrakum', 'wa', 'ahsana', 'azakum']</t>
         </is>
       </c>
     </row>
@@ -3979,34 +4474,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13648</v>
+        <v>29253</v>
       </c>
       <c r="C100" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">         alonalon kota rembang yang sekarang dibuat meniru alonalon kota lain dahulu kala sepe</t>
+          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan merahmati kehid</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['alonalon', 'kota', 'rembang', 'yang', 'sekarang', 'dibuat', 'meniru', 'alonalon', 'kota', 'lain', 'dahulu', 'kala', 'sepe']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'merahmati', 'kehid']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'merahmati', 'kehidupan']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['alonalon', 'kota', 'rembang', 'meniru', 'alonalon', 'kota', 'sepe']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['alonalon', 'kota', 'rembang', 'tiru', 'alonalon', 'kota', 'sepe']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'merahmati', 'kehidupan']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'rahmat', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -4015,34 +4515,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13649</v>
+        <v>29254</v>
       </c>
       <c r="C101" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>assalamualaikum warahmatullahi wabarakatuh selamat pagi semoga allah memberkahi jumat kita dan melindungi kita</t>
+          <t>yang ahli ekonomi bicara ekonomi sajalahtak usah bicara kesehatan atau teknik yang ahli makanan bic</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'kita', 'dan', 'melindungi', 'kita']</t>
+          <t>['yang', 'ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'usah', 'bicara', 'kesehatan', 'atau', 'teknik', 'yang', 'ahli', 'makanan', 'bic']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['yang', 'ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'usah', 'bicara', 'kesehatan', 'atau', 'teknik', 'yang', 'ahli', 'makanan', 'bic']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'semoga', 'allah', 'memberkahi', 'jumat', 'melindungi']</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'selamat', 'pagi', 'moga', 'allah', 'kah', 'jumat', 'lindung']</t>
+          <t>['ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'bicara', 'kesehatan', 'teknik', 'ahli', 'makanan', 'bic']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['ahli', 'ekonomi', 'bicara', 'ekonomi', 'sajalahtak', 'bicara', 'sehat', 'teknik', 'ahli', 'makan', 'bic']</t>
         </is>
       </c>
     </row>
